--- a/Documents/产品需求与版本计划映射表.xlsx
+++ b/Documents/产品需求与版本计划映射表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Server Requirements" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Android App Requirements'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iOS App Requirements'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Server Requirements'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iOS App Requirements'!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Server Requirements'!$A$1:$F$15</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
   <si>
     <t>Label</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Tomas</t>
   </si>
   <si>
-    <t>周期性抓取Seeds资源</t>
-  </si>
-  <si>
-    <t>本地持久化抓取的Seeds信息</t>
-  </si>
-  <si>
     <t>New Function</t>
   </si>
   <si>
@@ -128,18 +122,6 @@
     <t>浏览Seed的详细信息</t>
   </si>
   <si>
-    <t>联网获取Seed详细信息中的图片列表，并缓存在本地</t>
-  </si>
-  <si>
-    <t>联网获取Seed详细信息中的torrent文件，并缓存在本地</t>
-  </si>
-  <si>
-    <t>制定并向App端提供基于HTTP协议的JSON通信协议</t>
-  </si>
-  <si>
-    <t>响应App的请求返回本地持久化的Seeds信息</t>
-  </si>
-  <si>
     <t>第一个版本，完成最基本的功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,20 +135,76 @@
   </si>
   <si>
     <t>提供基于App用户的RSS订阅服务</t>
+  </si>
+  <si>
+    <t>在Server本地持久化抓取的Seeds信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性地抓取Seeds信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向App端提供基于HTTP协议的JSON通信协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应App的请求，向App提供Server本地持久化的Seeds信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向Server请求前天、昨天和今天自动抓取的Seeds更新数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地缓存从Server获取来的Seeds数据（只保留前天、昨天和今天的数据）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览Seeds数据列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览Seed的详细信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许用户手动删除缓存在本地的torrent文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chris</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许用户手动联网获取Seed详细信息中的torrent文件，并缓存在本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许用户手动联网获取Seed详细信息中的图片列表，并缓存在本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许用户手动删除缓存在本地的torrent文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,13 +212,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,10 +277,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,19 +298,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,22 +610,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
     <col min="2" max="2" width="95.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
@@ -573,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -587,13 +657,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6">
         <v>0.1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -605,166 +675,166 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6">
         <v>0.1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>0.2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>0.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6">
         <v>0.3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6">
         <v>0.2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
         <v>0.3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
         <v>0.3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6">
         <v>0.2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <v>0.3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
         <v>0.3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -775,13 +845,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>0.1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -792,38 +862,42 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>0.1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6">
         <v>0.3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F14">
-    <filterColumn colId="2"/>
+  <autoFilter ref="A1:F15">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0.1"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -837,21 +911,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="87.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="87.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -883,16 +956,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -900,16 +973,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>0.1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -917,84 +990,84 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <v>0.1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>0.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>0.3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>0.2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>0.2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1002,16 +1075,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1019,16 +1092,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>0.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1036,28 +1109,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>0.1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0.1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G11"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1067,21 +1152,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="79.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="79.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1099,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1113,16 +1198,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1130,16 +1215,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>0.1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1147,16 +1232,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>0.1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1">
@@ -1164,16 +1249,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>0.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1">
@@ -1181,16 +1266,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>0.3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1">
@@ -1198,16 +1283,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>0.2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1">
@@ -1215,16 +1300,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>0.2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1232,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1249,16 +1334,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>0.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1266,20 +1351,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>0.1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11">
+  <autoFilter ref="A1:G12">
     <filterColumn colId="2">
       <filters>
         <filter val="0.1"/>
@@ -1297,18 +1399,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -1316,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -1330,7 +1432,7 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1338,7 +1440,7 @@
         <v>0.2</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1346,7 +1448,7 @@
         <v>0.3</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
